--- a/doc/成本库表.xlsx
+++ b/doc/成本库表.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\work\jeecg-boot\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30BE82D-4675-4171-8E6B-1C2A3103FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E151F-8AF5-4AD7-B398-CB21B2BD977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -393,343 +402,344 @@
     <t>3*35+1*16</t>
   </si>
   <si>
+    <t>3*70+1*35</t>
+  </si>
+  <si>
+    <t>3*95+1*50</t>
+  </si>
+  <si>
+    <t>3*120+1*70</t>
+  </si>
+  <si>
+    <t>3*150+1*70</t>
+  </si>
+  <si>
+    <t>3*185+1*95</t>
+  </si>
+  <si>
+    <t>3*240+1*120</t>
+  </si>
+  <si>
+    <t>3*300+1*150</t>
+  </si>
+  <si>
+    <t>3*400+1*185</t>
+  </si>
+  <si>
+    <t>3*500+1*240</t>
+  </si>
+  <si>
+    <t>3*630+1*300</t>
+  </si>
+  <si>
+    <t>3*800+1*400</t>
+  </si>
+  <si>
+    <t>3*10+2*6</t>
+  </si>
+  <si>
+    <t>3*16+2*10</t>
+  </si>
+  <si>
+    <t>3*25+2*16</t>
+  </si>
+  <si>
+    <t>3*35+2*16</t>
+  </si>
+  <si>
+    <t>3*50+2*25</t>
+  </si>
+  <si>
+    <t>3*70+2*35</t>
+  </si>
+  <si>
+    <t>3*95+2*50</t>
+  </si>
+  <si>
+    <t>3*120+2*70</t>
+  </si>
+  <si>
+    <t>3*150+2*70</t>
+  </si>
+  <si>
+    <t>3*185+2*95</t>
+  </si>
+  <si>
+    <t>3*240+2*120</t>
+  </si>
+  <si>
+    <t>3*300+2*150</t>
+  </si>
+  <si>
+    <t>3*400+2*185</t>
+  </si>
+  <si>
+    <t>3*500+2*240</t>
+  </si>
+  <si>
+    <t>3*630+2*300</t>
+  </si>
+  <si>
+    <t>3*800+2*400</t>
+  </si>
+  <si>
+    <t>4*10+1*6</t>
+  </si>
+  <si>
+    <t>4*16+1*10</t>
+  </si>
+  <si>
+    <t>4*25+1*16</t>
+  </si>
+  <si>
+    <t>4*35+1*16</t>
+  </si>
+  <si>
+    <t>4*50+1*25</t>
+  </si>
+  <si>
+    <t>4*70+1*35</t>
+  </si>
+  <si>
+    <t>4*95+1*50</t>
+  </si>
+  <si>
+    <t>4*120+1*70</t>
+  </si>
+  <si>
+    <t>4*150+1*70</t>
+  </si>
+  <si>
+    <t>4*185+1*95</t>
+  </si>
+  <si>
+    <t>4*240+1*120</t>
+  </si>
+  <si>
+    <t>4*300+1*150</t>
+  </si>
+  <si>
+    <t>4*400+1*185</t>
+  </si>
+  <si>
+    <t>4*500+1*240</t>
+  </si>
+  <si>
+    <t>4*630+1*300</t>
+  </si>
+  <si>
+    <t>4*800+1*400</t>
+  </si>
+  <si>
+    <t>2*1</t>
+  </si>
+  <si>
+    <t>纯硅烷(二步法)</t>
+  </si>
+  <si>
+    <t>3*1</t>
+  </si>
+  <si>
+    <t>4*1</t>
+  </si>
+  <si>
+    <t>5*1</t>
+  </si>
+  <si>
+    <t>6*1</t>
+  </si>
+  <si>
+    <t>7*1</t>
+  </si>
+  <si>
+    <t>8*1</t>
+  </si>
+  <si>
+    <t>10*1</t>
+  </si>
+  <si>
+    <t>12*1</t>
+  </si>
+  <si>
+    <t>14*1</t>
+  </si>
+  <si>
+    <t>16*1</t>
+  </si>
+  <si>
+    <t>19*1</t>
+  </si>
+  <si>
+    <t>20*1</t>
+  </si>
+  <si>
+    <t>24*1</t>
+  </si>
+  <si>
+    <t>27*1</t>
+  </si>
+  <si>
+    <t>30*1</t>
+  </si>
+  <si>
+    <t>37*1</t>
+  </si>
+  <si>
+    <t>2*1.5</t>
+  </si>
+  <si>
+    <t>3*1.5</t>
+  </si>
+  <si>
+    <t>4*1.5</t>
+  </si>
+  <si>
+    <t>5*1.5</t>
+  </si>
+  <si>
+    <t>6*1.5</t>
+  </si>
+  <si>
+    <t>7*1.5</t>
+  </si>
+  <si>
+    <t>8*1.5</t>
+  </si>
+  <si>
+    <t>10*1.5</t>
+  </si>
+  <si>
+    <t>12*1.5</t>
+  </si>
+  <si>
+    <t>14*1.5</t>
+  </si>
+  <si>
+    <t>16*1.5</t>
+  </si>
+  <si>
+    <t>19*1.5</t>
+  </si>
+  <si>
+    <t>20*1.5</t>
+  </si>
+  <si>
+    <t>24*1.5</t>
+  </si>
+  <si>
+    <t>27*1.5</t>
+  </si>
+  <si>
+    <t>30*1.5</t>
+  </si>
+  <si>
+    <t>37*1.5</t>
+  </si>
+  <si>
+    <t>2*2.5</t>
+  </si>
+  <si>
+    <t>3*2.5</t>
+  </si>
+  <si>
+    <t>4*2.5</t>
+  </si>
+  <si>
+    <t>5*2.5</t>
+  </si>
+  <si>
+    <t>6*2.5</t>
+  </si>
+  <si>
+    <t>7*2.5</t>
+  </si>
+  <si>
+    <t>8*2.5</t>
+  </si>
+  <si>
+    <t>10*2.5</t>
+  </si>
+  <si>
+    <t>12*2.5</t>
+  </si>
+  <si>
+    <t>14*2.5</t>
+  </si>
+  <si>
+    <t>16*2.5</t>
+  </si>
+  <si>
+    <t>19*2.5</t>
+  </si>
+  <si>
+    <t>20*2.5</t>
+  </si>
+  <si>
+    <t>24*2.5</t>
+  </si>
+  <si>
+    <t>27*2.5</t>
+  </si>
+  <si>
+    <t>30*2.5</t>
+  </si>
+  <si>
+    <t>37*2.5</t>
+  </si>
+  <si>
+    <t>2*4</t>
+  </si>
+  <si>
+    <t>3*4</t>
+  </si>
+  <si>
+    <t>4*4</t>
+  </si>
+  <si>
+    <t>5*4</t>
+  </si>
+  <si>
+    <t>2*6</t>
+  </si>
+  <si>
+    <t>3*6</t>
+  </si>
+  <si>
+    <t>4*6</t>
+  </si>
+  <si>
+    <t>5*6</t>
+  </si>
+  <si>
+    <t>3*2.5+1*1.5</t>
+  </si>
+  <si>
+    <t>3*2.5+2*1.5</t>
+  </si>
+  <si>
+    <t>3*4+1*2.5</t>
+  </si>
+  <si>
+    <t>3*4+2*2.5</t>
+  </si>
+  <si>
+    <t>4*4+1*2.5</t>
+  </si>
+  <si>
+    <t>3*6+1*4</t>
+  </si>
+  <si>
+    <t>3*6+2*4</t>
+  </si>
+  <si>
+    <t>4*6+1*4</t>
+  </si>
+  <si>
+    <t>成本加点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3*50+1*25</t>
-  </si>
-  <si>
-    <t>3*70+1*35</t>
-  </si>
-  <si>
-    <t>3*95+1*50</t>
-  </si>
-  <si>
-    <t>3*120+1*70</t>
-  </si>
-  <si>
-    <t>3*150+1*70</t>
-  </si>
-  <si>
-    <t>3*185+1*95</t>
-  </si>
-  <si>
-    <t>3*240+1*120</t>
-  </si>
-  <si>
-    <t>3*300+1*150</t>
-  </si>
-  <si>
-    <t>3*400+1*185</t>
-  </si>
-  <si>
-    <t>3*500+1*240</t>
-  </si>
-  <si>
-    <t>3*630+1*300</t>
-  </si>
-  <si>
-    <t>3*800+1*400</t>
-  </si>
-  <si>
-    <t>3*10+2*6</t>
-  </si>
-  <si>
-    <t>3*16+2*10</t>
-  </si>
-  <si>
-    <t>3*25+2*16</t>
-  </si>
-  <si>
-    <t>3*35+2*16</t>
-  </si>
-  <si>
-    <t>3*50+2*25</t>
-  </si>
-  <si>
-    <t>3*70+2*35</t>
-  </si>
-  <si>
-    <t>3*95+2*50</t>
-  </si>
-  <si>
-    <t>3*120+2*70</t>
-  </si>
-  <si>
-    <t>3*150+2*70</t>
-  </si>
-  <si>
-    <t>3*185+2*95</t>
-  </si>
-  <si>
-    <t>3*240+2*120</t>
-  </si>
-  <si>
-    <t>3*300+2*150</t>
-  </si>
-  <si>
-    <t>3*400+2*185</t>
-  </si>
-  <si>
-    <t>3*500+2*240</t>
-  </si>
-  <si>
-    <t>3*630+2*300</t>
-  </si>
-  <si>
-    <t>3*800+2*400</t>
-  </si>
-  <si>
-    <t>4*10+1*6</t>
-  </si>
-  <si>
-    <t>4*16+1*10</t>
-  </si>
-  <si>
-    <t>4*25+1*16</t>
-  </si>
-  <si>
-    <t>4*35+1*16</t>
-  </si>
-  <si>
-    <t>4*50+1*25</t>
-  </si>
-  <si>
-    <t>4*70+1*35</t>
-  </si>
-  <si>
-    <t>4*95+1*50</t>
-  </si>
-  <si>
-    <t>4*120+1*70</t>
-  </si>
-  <si>
-    <t>4*150+1*70</t>
-  </si>
-  <si>
-    <t>4*185+1*95</t>
-  </si>
-  <si>
-    <t>4*240+1*120</t>
-  </si>
-  <si>
-    <t>4*300+1*150</t>
-  </si>
-  <si>
-    <t>4*400+1*185</t>
-  </si>
-  <si>
-    <t>4*500+1*240</t>
-  </si>
-  <si>
-    <t>4*630+1*300</t>
-  </si>
-  <si>
-    <t>4*800+1*400</t>
-  </si>
-  <si>
-    <t>2*1</t>
-  </si>
-  <si>
-    <t>纯硅烷(二步法)</t>
-  </si>
-  <si>
-    <t>3*1</t>
-  </si>
-  <si>
-    <t>4*1</t>
-  </si>
-  <si>
-    <t>5*1</t>
-  </si>
-  <si>
-    <t>6*1</t>
-  </si>
-  <si>
-    <t>7*1</t>
-  </si>
-  <si>
-    <t>8*1</t>
-  </si>
-  <si>
-    <t>10*1</t>
-  </si>
-  <si>
-    <t>12*1</t>
-  </si>
-  <si>
-    <t>14*1</t>
-  </si>
-  <si>
-    <t>16*1</t>
-  </si>
-  <si>
-    <t>19*1</t>
-  </si>
-  <si>
-    <t>20*1</t>
-  </si>
-  <si>
-    <t>24*1</t>
-  </si>
-  <si>
-    <t>27*1</t>
-  </si>
-  <si>
-    <t>30*1</t>
-  </si>
-  <si>
-    <t>37*1</t>
-  </si>
-  <si>
-    <t>2*1.5</t>
-  </si>
-  <si>
-    <t>3*1.5</t>
-  </si>
-  <si>
-    <t>4*1.5</t>
-  </si>
-  <si>
-    <t>5*1.5</t>
-  </si>
-  <si>
-    <t>6*1.5</t>
-  </si>
-  <si>
-    <t>7*1.5</t>
-  </si>
-  <si>
-    <t>8*1.5</t>
-  </si>
-  <si>
-    <t>10*1.5</t>
-  </si>
-  <si>
-    <t>12*1.5</t>
-  </si>
-  <si>
-    <t>14*1.5</t>
-  </si>
-  <si>
-    <t>16*1.5</t>
-  </si>
-  <si>
-    <t>19*1.5</t>
-  </si>
-  <si>
-    <t>20*1.5</t>
-  </si>
-  <si>
-    <t>24*1.5</t>
-  </si>
-  <si>
-    <t>27*1.5</t>
-  </si>
-  <si>
-    <t>30*1.5</t>
-  </si>
-  <si>
-    <t>37*1.5</t>
-  </si>
-  <si>
-    <t>2*2.5</t>
-  </si>
-  <si>
-    <t>3*2.5</t>
-  </si>
-  <si>
-    <t>4*2.5</t>
-  </si>
-  <si>
-    <t>5*2.5</t>
-  </si>
-  <si>
-    <t>6*2.5</t>
-  </si>
-  <si>
-    <t>7*2.5</t>
-  </si>
-  <si>
-    <t>8*2.5</t>
-  </si>
-  <si>
-    <t>10*2.5</t>
-  </si>
-  <si>
-    <t>12*2.5</t>
-  </si>
-  <si>
-    <t>14*2.5</t>
-  </si>
-  <si>
-    <t>16*2.5</t>
-  </si>
-  <si>
-    <t>19*2.5</t>
-  </si>
-  <si>
-    <t>20*2.5</t>
-  </si>
-  <si>
-    <t>24*2.5</t>
-  </si>
-  <si>
-    <t>27*2.5</t>
-  </si>
-  <si>
-    <t>30*2.5</t>
-  </si>
-  <si>
-    <t>37*2.5</t>
-  </si>
-  <si>
-    <t>2*4</t>
-  </si>
-  <si>
-    <t>3*4</t>
-  </si>
-  <si>
-    <t>4*4</t>
-  </si>
-  <si>
-    <t>5*4</t>
-  </si>
-  <si>
-    <t>2*6</t>
-  </si>
-  <si>
-    <t>3*6</t>
-  </si>
-  <si>
-    <t>4*6</t>
-  </si>
-  <si>
-    <t>5*6</t>
-  </si>
-  <si>
-    <t>3*2.5+1*1.5</t>
-  </si>
-  <si>
-    <t>3*2.5+2*1.5</t>
-  </si>
-  <si>
-    <t>3*4+1*2.5</t>
-  </si>
-  <si>
-    <t>3*4+2*2.5</t>
-  </si>
-  <si>
-    <t>4*4+1*2.5</t>
-  </si>
-  <si>
-    <t>3*6+1*4</t>
-  </si>
-  <si>
-    <t>3*6+2*4</t>
-  </si>
-  <si>
-    <t>4*6+1*4</t>
-  </si>
-  <si>
-    <t>成本加点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +770,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +789,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -792,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -812,6 +828,26 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1095,12 +1131,13 @@
   <dimension ref="A1:AA204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.58203125" customWidth="1"/>
     <col min="8" max="8" width="14.58203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
@@ -1115,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6289,64 +6326,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11">
         <v>131.13029499843299</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="11">
         <v>7</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="12">
         <v>1.0109999999999999</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="11">
         <v>267.425148012862</v>
       </c>
-      <c r="G90" s="4">
-        <v>1</v>
-      </c>
-      <c r="H90" s="4">
-        <v>1</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J90" s="4">
+      <c r="G90" s="11">
+        <v>1</v>
+      </c>
+      <c r="H90" s="11">
+        <v>1</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" s="11">
         <v>0.8</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="11">
         <v>0.7</v>
       </c>
-      <c r="L90" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W90" s="1">
+      <c r="L90" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M90" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W90" s="11">
         <v>1.8</v>
       </c>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA90" s="2">
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA90" s="12">
         <v>1</v>
       </c>
     </row>
@@ -6533,70 +6570,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1">
+    <row r="94" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7">
         <v>238.573455311777</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="7">
         <v>10</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="8">
         <v>1.0109999999999999</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="7">
         <v>208.046961644752</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="7">
         <v>7</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="7">
         <v>1.0109999999999999</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J94" s="4">
-        <v>1</v>
-      </c>
-      <c r="K94" s="4">
+      <c r="I94" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="7">
+        <v>1</v>
+      </c>
+      <c r="K94" s="7">
         <v>0.9</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M94" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W94" s="1">
+      <c r="L94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M94" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W94" s="7">
         <v>1.9</v>
       </c>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA94" s="2">
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA94" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1">
@@ -6657,7 +6694,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1">
@@ -6718,7 +6755,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1">
@@ -6779,7 +6816,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1">
@@ -6840,7 +6877,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1">
@@ -6901,7 +6938,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1">
@@ -6962,7 +6999,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1">
@@ -7023,7 +7060,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1">
@@ -7084,7 +7121,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1">
@@ -7145,7 +7182,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1">
@@ -7206,7 +7243,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1">
@@ -7267,7 +7304,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1">
@@ -7328,7 +7365,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1">
@@ -7389,7 +7426,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1">
@@ -7450,7 +7487,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1">
@@ -7509,70 +7546,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1">
+    <row r="110" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7">
         <v>238.573455311777</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="7">
         <v>10</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="8">
         <v>1.0109999999999999</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="7">
         <v>208.046961644752</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="7">
         <v>7</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="7">
         <v>1.0109999999999999</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J110" s="4">
-        <v>1</v>
-      </c>
-      <c r="K110" s="4">
+      <c r="I110" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" s="7">
+        <v>1</v>
+      </c>
+      <c r="K110" s="7">
         <v>0.9</v>
       </c>
-      <c r="L110" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M110" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W110" s="1">
+      <c r="L110" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M110" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W110" s="7">
         <v>2</v>
       </c>
-      <c r="X110" s="1"/>
-      <c r="Y110" s="1"/>
-      <c r="Z110" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA110" s="2">
+      <c r="X110" s="7"/>
+      <c r="Y110" s="7"/>
+      <c r="Z110" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA110" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1">
@@ -7633,7 +7670,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1">
@@ -7694,7 +7731,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1">
@@ -7755,7 +7792,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1">
@@ -7816,7 +7853,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1">
@@ -7877,7 +7914,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1">
@@ -7938,7 +7975,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1">
@@ -7999,7 +8036,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1">
@@ -8060,7 +8097,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1">
@@ -8121,7 +8158,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1">
@@ -8182,7 +8219,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1">
@@ -8243,7 +8280,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1">
@@ -8304,7 +8341,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1">
@@ -8365,7 +8402,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1">
@@ -8426,7 +8463,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1">
@@ -8487,7 +8524,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1">
@@ -8548,7 +8585,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1">
@@ -8609,7 +8646,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1">
@@ -8670,7 +8707,7 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1">
@@ -8731,7 +8768,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1">
@@ -8792,7 +8829,7 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1">
@@ -8853,7 +8890,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1">
@@ -8914,7 +8951,7 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1">
@@ -8975,7 +9012,7 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1">
@@ -9036,7 +9073,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1">
@@ -9097,7 +9134,7 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1">
@@ -9158,7 +9195,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1">
@@ -9219,7 +9256,7 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1">
@@ -9241,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J138" s="4">
         <v>0.6</v>
@@ -9278,7 +9315,7 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1">
@@ -9300,7 +9337,7 @@
         <v>1</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J139" s="4">
         <v>0.6</v>
@@ -9337,7 +9374,7 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1">
@@ -9359,7 +9396,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J140" s="4">
         <v>0.6</v>
@@ -9396,7 +9433,7 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1">
@@ -9418,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J141" s="4">
         <v>0.6</v>
@@ -9455,7 +9492,7 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1">
@@ -9477,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J142" s="4">
         <v>0.6</v>
@@ -9514,7 +9551,7 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1">
@@ -9536,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J143" s="4">
         <v>0.6</v>
@@ -9573,7 +9610,7 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1">
@@ -9595,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J144" s="4">
         <v>0.6</v>
@@ -9632,7 +9669,7 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1">
@@ -9654,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J145" s="4">
         <v>0.6</v>
@@ -9691,7 +9728,7 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1">
@@ -9713,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J146" s="4">
         <v>0.6</v>
@@ -9750,7 +9787,7 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1">
@@ -9772,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J147" s="4">
         <v>0.6</v>
@@ -9809,7 +9846,7 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1">
@@ -9831,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J148" s="4">
         <v>0.6</v>
@@ -9868,7 +9905,7 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1">
@@ -9890,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J149" s="4">
         <v>0.6</v>
@@ -9927,7 +9964,7 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1">
@@ -9949,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J150" s="4">
         <v>0.6</v>
@@ -9986,7 +10023,7 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1">
@@ -10008,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J151" s="4">
         <v>0.6</v>
@@ -10045,7 +10082,7 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1">
@@ -10067,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J152" s="4">
         <v>0.6</v>
@@ -10104,7 +10141,7 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1">
@@ -10126,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J153" s="4">
         <v>0.6</v>
@@ -10163,7 +10200,7 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1">
@@ -10185,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J154" s="4">
         <v>0.6</v>
@@ -10222,7 +10259,7 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1">
@@ -10244,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J155" s="4">
         <v>0.7</v>
@@ -10281,7 +10318,7 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1">
@@ -10303,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J156" s="4">
         <v>0.7</v>
@@ -10340,7 +10377,7 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1">
@@ -10362,7 +10399,7 @@
         <v>1</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J157" s="4">
         <v>0.7</v>
@@ -10399,7 +10436,7 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1">
@@ -10421,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J158" s="4">
         <v>0.7</v>
@@ -10458,7 +10495,7 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1">
@@ -10480,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J159" s="4">
         <v>0.7</v>
@@ -10517,7 +10554,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1">
@@ -10539,7 +10576,7 @@
         <v>1</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J160" s="4">
         <v>0.7</v>
@@ -10576,7 +10613,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1">
@@ -10598,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J161" s="4">
         <v>0.7</v>
@@ -10635,7 +10672,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1">
@@ -10657,7 +10694,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J162" s="4">
         <v>0.7</v>
@@ -10694,7 +10731,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1">
@@ -10716,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J163" s="4">
         <v>0.7</v>
@@ -10753,7 +10790,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1">
@@ -10775,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J164" s="4">
         <v>0.7</v>
@@ -10812,7 +10849,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1">
@@ -10834,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J165" s="4">
         <v>0.7</v>
@@ -10871,7 +10908,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1">
@@ -10893,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J166" s="4">
         <v>0.7</v>
@@ -10930,7 +10967,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1">
@@ -10952,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J167" s="4">
         <v>0.7</v>
@@ -10989,7 +11026,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1">
@@ -11011,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J168" s="4">
         <v>0.7</v>
@@ -11048,7 +11085,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1">
@@ -11070,7 +11107,7 @@
         <v>1</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J169" s="4">
         <v>0.7</v>
@@ -11107,7 +11144,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1">
@@ -11129,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J170" s="4">
         <v>0.7</v>
@@ -11166,7 +11203,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1">
@@ -11188,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J171" s="4">
         <v>0.7</v>
@@ -11225,7 +11262,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1">
@@ -11247,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J172" s="4">
         <v>0.7</v>
@@ -11284,7 +11321,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1">
@@ -11306,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J173" s="4">
         <v>0.7</v>
@@ -11343,7 +11380,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1">
@@ -11365,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J174" s="4">
         <v>0.7</v>
@@ -11402,7 +11439,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1">
@@ -11424,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J175" s="4">
         <v>0.7</v>
@@ -11461,7 +11498,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1">
@@ -11483,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J176" s="4">
         <v>0.7</v>
@@ -11520,7 +11557,7 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1">
@@ -11542,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J177" s="4">
         <v>0.7</v>
@@ -11579,7 +11616,7 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1">
@@ -11601,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J178" s="4">
         <v>0.7</v>
@@ -11638,7 +11675,7 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1">
@@ -11660,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J179" s="4">
         <v>0.7</v>
@@ -11697,7 +11734,7 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1">
@@ -11719,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J180" s="4">
         <v>0.7</v>
@@ -11756,7 +11793,7 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1">
@@ -11778,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J181" s="4">
         <v>0.7</v>
@@ -11815,7 +11852,7 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1">
@@ -11837,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J182" s="4">
         <v>0.7</v>
@@ -11874,7 +11911,7 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1">
@@ -11896,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J183" s="4">
         <v>0.7</v>
@@ -11933,7 +11970,7 @@
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1">
@@ -11955,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J184" s="4">
         <v>0.7</v>
@@ -11992,7 +12029,7 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1">
@@ -12014,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J185" s="4">
         <v>0.7</v>
@@ -12051,7 +12088,7 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1">
@@ -12073,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J186" s="4">
         <v>0.7</v>
@@ -12110,7 +12147,7 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1">
@@ -12132,7 +12169,7 @@
         <v>1</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J187" s="4">
         <v>0.7</v>
@@ -12169,7 +12206,7 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1">
@@ -12191,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J188" s="4">
         <v>0.7</v>
@@ -12228,7 +12265,7 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1">
@@ -12250,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J189" s="4">
         <v>0.7</v>
@@ -12287,7 +12324,7 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1">
@@ -12309,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J190" s="4">
         <v>0.7</v>
@@ -12346,7 +12383,7 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1">
@@ -12368,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J191" s="4">
         <v>0.7</v>
@@ -12405,7 +12442,7 @@
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1">
@@ -12427,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J192" s="4">
         <v>0.7</v>
@@ -12464,7 +12501,7 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1">
@@ -12486,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J193" s="4">
         <v>0.7</v>
@@ -12523,7 +12560,7 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1">
@@ -12545,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J194" s="4">
         <v>0.7</v>
@@ -12582,7 +12619,7 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1">
@@ -12604,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J195" s="4">
         <v>0.7</v>
@@ -12641,7 +12678,7 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1">
@@ -12663,7 +12700,7 @@
         <v>1</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J196" s="4">
         <v>0.7</v>
@@ -12700,7 +12737,7 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1">
@@ -12722,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J197" s="4">
         <v>0.7</v>
@@ -12761,7 +12798,7 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1">
@@ -12783,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J198" s="4">
         <v>0.7</v>
@@ -12822,7 +12859,7 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1">
@@ -12844,7 +12881,7 @@
         <v>1.0024999999999999</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J199" s="4">
         <v>0.7</v>
@@ -12883,7 +12920,7 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1">
@@ -12905,7 +12942,7 @@
         <v>1.0024999999999999</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J200" s="4">
         <v>0.7</v>
@@ -12944,7 +12981,7 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1">
@@ -12966,7 +13003,7 @@
         <v>1.0024999999999999</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J201" s="4">
         <v>0.7</v>
@@ -13005,7 +13042,7 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1">
@@ -13027,7 +13064,7 @@
         <v>1.0024999999999999</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J202" s="4">
         <v>0.7</v>
@@ -13066,7 +13103,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1">
@@ -13088,7 +13125,7 @@
         <v>1.0024999999999999</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J203" s="4">
         <v>0.7</v>
@@ -13127,7 +13164,7 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1">
@@ -13149,7 +13186,7 @@
         <v>1.0024999999999999</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J204" s="4">
         <v>0.7</v>
